--- a/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Otras cuentas por Pagar/6250 Auditoria de otras cuentas por pagar.xlsx
+++ b/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Otras cuentas por Pagar/6250 Auditoria de otras cuentas por pagar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\6000 Pruebas de Pasivos y Patrimonio\6200 Cuentas por Pagar\Otras cuentas por pagar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\6000 Pruebas de Pasivos y Patrimonio\6200 Otras cuentas por Pagar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70654BCD-FCAA-40EB-82F5-816DB2BBB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215850A5-6220-4330-9C9B-0818EA87E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5418CD9-7BFD-4447-B8CB-6EB440F8DF36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5418CD9-7BFD-4447-B8CB-6EB440F8DF36}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -3386,7 +3386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3434,9 +3434,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3453,7 +3458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3751,11 +3756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1EE49-149E-461C-BB6F-6C712F2B37EB}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
@@ -4197,16 +4202,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B9CD7-E7B5-4B25-8BEE-BD6058384BE5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -4220,7 +4224,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -4248,8 +4252,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>201030401003</v>
       </c>
       <c r="B2" t="s">
@@ -4272,8 +4276,8 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>201030401003</v>
       </c>
       <c r="B3" t="s">
@@ -4301,8 +4305,8 @@
         <v>3832128.12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>201030401003</v>
       </c>
       <c r="B4" t="s">
@@ -4330,8 +4334,8 @@
         <v>3680530.43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>201030401003</v>
       </c>
       <c r="B5" t="s">
@@ -4359,8 +4363,8 @@
         <v>3753413.92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>201030401003</v>
       </c>
       <c r="B6" t="s">
@@ -4388,8 +4392,8 @@
         <v>3724438.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>201030401003</v>
       </c>
       <c r="B7" t="s">
@@ -4417,8 +4421,8 @@
         <v>3724726.17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>201030401003</v>
       </c>
       <c r="B8" t="s">
@@ -4446,8 +4450,8 @@
         <v>3753393.92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>201030401003</v>
       </c>
       <c r="B9" t="s">
@@ -4475,8 +4479,8 @@
         <v>3833776.78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>201030401003</v>
       </c>
       <c r="B10" t="s">
@@ -4504,8 +4508,8 @@
         <v>3332095.94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>201030401003</v>
       </c>
       <c r="B11" t="s">
@@ -4533,8 +4537,8 @@
         <v>3344292.26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>201030401003</v>
       </c>
       <c r="B12" t="s">
@@ -4562,8 +4566,8 @@
         <v>3367064.78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>201030401003</v>
       </c>
       <c r="B13" t="s">
@@ -4591,8 +4595,8 @@
         <v>3365936.99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>201030401003</v>
       </c>
       <c r="B14" t="s">
@@ -4620,8 +4624,8 @@
         <v>3370061.37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
         <v>201030401003</v>
       </c>
       <c r="B15" t="s">
@@ -4649,8 +4653,8 @@
         <v>3796579.71</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
         <v>201030401003</v>
       </c>
       <c r="B16" t="s">
@@ -4678,8 +4682,8 @@
         <v>3365571.58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
         <v>201030401003</v>
       </c>
       <c r="B17" t="s">
@@ -4707,8 +4711,8 @@
         <v>3787711.24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>201030401003</v>
       </c>
       <c r="B18" t="s">
@@ -4736,8 +4740,8 @@
         <v>3787093.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
         <v>201030401003</v>
       </c>
       <c r="B19" t="s">
@@ -4765,8 +4769,8 @@
         <v>3795180.21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
         <v>201030401003</v>
       </c>
       <c r="B20" t="s">
@@ -4794,8 +4798,8 @@
         <v>3787539.13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
         <v>201030401003</v>
       </c>
       <c r="B21" t="s">
@@ -4823,8 +4827,8 @@
         <v>3726508.43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
         <v>201030401003</v>
       </c>
       <c r="B22" t="s">
@@ -4852,8 +4856,8 @@
         <v>3719402.57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
         <v>201030401003</v>
       </c>
       <c r="B23" t="s">
@@ -4881,8 +4885,8 @@
         <v>3724729.46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
         <v>201030401003</v>
       </c>
       <c r="B24" t="s">
@@ -4910,8 +4914,8 @@
         <v>3467593.87</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
         <v>201030401003</v>
       </c>
       <c r="B25" t="s">
@@ -4939,8 +4943,8 @@
         <v>3467740.47</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:9" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
         <v>201030401003</v>
       </c>
       <c r="B26" t="s">
@@ -4968,8 +4972,8 @@
         <v>3467648.87</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
         <v>201030401003</v>
       </c>
       <c r="B27" t="s">
@@ -4997,8 +5001,8 @@
         <v>3380608.98</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
         <v>201030401003</v>
       </c>
       <c r="B28" t="s">
@@ -5026,8 +5030,8 @@
         <v>3372455.02</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
         <v>201030401003</v>
       </c>
       <c r="B29" t="s">
@@ -5055,8 +5059,8 @@
         <v>3833888.14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
         <v>201030401003</v>
       </c>
       <c r="B30" t="s">
@@ -5084,8 +5088,8 @@
         <v>3390262.98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
         <v>201030401003</v>
       </c>
       <c r="B31" t="s">
@@ -5113,8 +5117,8 @@
         <v>3370871.46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
         <v>201030401003</v>
       </c>
       <c r="B32" t="s">
@@ -5143,7 +5147,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="40">
         <v>201030401003</v>
       </c>
       <c r="B33" t="s">
@@ -5171,8 +5175,8 @@
         <v>3365936.99</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
         <v>201030401003</v>
       </c>
       <c r="B34" t="s">
@@ -5200,8 +5204,8 @@
         <v>3391683.81</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
         <v>201030401003</v>
       </c>
       <c r="B35" t="s">
@@ -5229,8 +5233,8 @@
         <v>3787896.6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
         <v>201030401003</v>
       </c>
       <c r="B36" t="s">
@@ -5258,8 +5262,8 @@
         <v>3368088.28</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
         <v>201030401003</v>
       </c>
       <c r="B37" t="s">
@@ -5287,8 +5291,8 @@
         <v>3451891.46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
         <v>201030401003</v>
       </c>
       <c r="B38" t="s">
@@ -5316,8 +5320,8 @@
         <v>3452047.54</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
         <v>201030401003</v>
       </c>
       <c r="B39" t="s">
@@ -5345,8 +5349,8 @@
         <v>3369440.09</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
         <v>201030401003</v>
       </c>
       <c r="B40" t="s">
@@ -5374,8 +5378,8 @@
         <v>3371337.37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
         <v>201030401003</v>
       </c>
       <c r="B41" t="s">
@@ -5403,8 +5407,8 @@
         <v>3368179.09</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
         <v>201030401003</v>
       </c>
       <c r="B42" t="s">
@@ -5432,8 +5436,8 @@
         <v>3369603.23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
         <v>201030401003</v>
       </c>
       <c r="B43" t="s">
@@ -5461,8 +5465,8 @@
         <v>3725282.02</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
         <v>201030401003</v>
       </c>
       <c r="B44" t="s">
@@ -5490,8 +5494,8 @@
         <v>3733918.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
         <v>201030401003</v>
       </c>
       <c r="B45" t="s">
@@ -5519,8 +5523,8 @@
         <v>3795244.32</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
         <v>201030401003</v>
       </c>
       <c r="B46" t="s">
@@ -5548,8 +5552,8 @@
         <v>3367459.28</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
         <v>201030401003</v>
       </c>
       <c r="B47" t="s">
@@ -5577,8 +5581,8 @@
         <v>3726007.94</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
         <v>201030401003</v>
       </c>
       <c r="B48" t="s">
@@ -5606,8 +5610,8 @@
         <v>3370261.01</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
         <v>201030401003</v>
       </c>
       <c r="B49" t="s">
@@ -5635,8 +5639,8 @@
         <v>3366815.14</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
         <v>201030401003</v>
       </c>
       <c r="B50" t="s">
@@ -5664,8 +5668,8 @@
         <v>3366865.14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
         <v>201030401003</v>
       </c>
       <c r="B51" t="s">
@@ -5693,8 +5697,8 @@
         <v>3266325.54</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
         <v>201030401003</v>
       </c>
       <c r="B52" t="s">
@@ -5722,8 +5726,8 @@
         <v>3368143.28</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
         <v>201030401003</v>
       </c>
       <c r="B53" t="s">
@@ -5751,8 +5755,8 @@
         <v>3675643.05</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
         <v>201030401003</v>
       </c>
       <c r="B54" t="s">
@@ -5780,8 +5784,8 @@
         <v>3369136.99</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
         <v>201030401003</v>
       </c>
       <c r="B55" t="s">
@@ -5809,8 +5813,8 @@
         <v>3370793.37</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
         <v>201030401003</v>
       </c>
       <c r="B56" t="s">
@@ -5838,8 +5842,8 @@
         <v>3739400.94</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
         <v>201030401003</v>
       </c>
       <c r="B57" t="s">
@@ -5867,8 +5871,8 @@
         <v>3787539.13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
         <v>201030401003</v>
       </c>
       <c r="B58" t="s">
@@ -5896,8 +5900,8 @@
         <v>3472061.99</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
         <v>201030401003</v>
       </c>
       <c r="B59" t="s">
@@ -5925,8 +5929,8 @@
         <v>3793247.13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
         <v>201030401003</v>
       </c>
       <c r="B60" t="s">
@@ -5954,8 +5958,8 @@
         <v>3827391.42</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
         <v>201030401003</v>
       </c>
       <c r="B61" t="s">
@@ -5983,8 +5987,8 @@
         <v>3753503.2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
         <v>201030401003</v>
       </c>
       <c r="B62" t="s">
@@ -6012,8 +6016,8 @@
         <v>3406921.56</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
         <v>201030401003</v>
       </c>
       <c r="B63" t="s">
@@ -6041,8 +6045,8 @@
         <v>3378697.18</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
         <v>201030401003</v>
       </c>
       <c r="B64" t="s">
@@ -6070,8 +6074,8 @@
         <v>3375577.72</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
         <v>201030401003</v>
       </c>
       <c r="B65" t="s">
@@ -6099,8 +6103,8 @@
         <v>3390355.98</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
         <v>201030401003</v>
       </c>
       <c r="B66" t="s">
@@ -6128,8 +6132,8 @@
         <v>3392988.81</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
         <v>201030401003</v>
       </c>
       <c r="B67" t="s">
@@ -6157,8 +6161,8 @@
         <v>3377557.18</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
         <v>201030401003</v>
       </c>
       <c r="B68" t="s">
@@ -6186,8 +6190,8 @@
         <v>3371866.52</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
         <v>201030401003</v>
       </c>
       <c r="B69" t="s">
@@ -6215,8 +6219,8 @@
         <v>3392778.81</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
         <v>201030401003</v>
       </c>
       <c r="B70" t="s">
@@ -6245,7 +6249,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="40">
         <v>201030401003</v>
       </c>
       <c r="B71" t="s">
@@ -6273,8 +6277,8 @@
         <v>3469010.98</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40">
         <v>201030401003</v>
       </c>
       <c r="B72" t="s">
@@ -6302,8 +6306,8 @@
         <v>3369689.06</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
         <v>201030401003</v>
       </c>
       <c r="B73" t="s">
@@ -6331,8 +6335,8 @@
         <v>3468566.48</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
         <v>201030401003</v>
       </c>
       <c r="B74" t="s">
@@ -6361,7 +6365,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="40">
         <v>201030401003</v>
       </c>
       <c r="B75" t="s">
@@ -6389,8 +6393,8 @@
         <v>3469287.14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
         <v>201030401003</v>
       </c>
       <c r="B76" t="s">
@@ -6418,8 +6422,8 @@
         <v>3468616.48</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
         <v>201030401003</v>
       </c>
       <c r="B77" t="s">
@@ -6447,8 +6451,8 @@
         <v>3468658.14</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
         <v>201030401003</v>
       </c>
       <c r="B78" t="s">
@@ -6476,8 +6480,8 @@
         <v>3474379.45</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
         <v>201030401003</v>
       </c>
       <c r="B79" t="s">
@@ -6505,8 +6509,8 @@
         <v>3469510.98</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
         <v>201030401003</v>
       </c>
       <c r="B80" t="s">
@@ -6534,8 +6538,8 @@
         <v>3468526.59</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
         <v>201030401003</v>
       </c>
       <c r="B81" t="s">
@@ -6563,8 +6567,8 @@
         <v>3467868.81</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
         <v>201030401003</v>
       </c>
       <c r="B82" t="s">
@@ -6592,8 +6596,8 @@
         <v>3726540.48</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
         <v>201030401003</v>
       </c>
       <c r="B83" t="s">
@@ -6621,8 +6625,8 @@
         <v>3726508.43</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
         <v>201030401003</v>
       </c>
       <c r="B84" t="s">
@@ -6650,8 +6654,8 @@
         <v>3793007.13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
         <v>201030401003</v>
       </c>
       <c r="B85" t="s">
@@ -6679,8 +6683,8 @@
         <v>3792163.37</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
         <v>201030401003</v>
       </c>
       <c r="B86" t="s">
@@ -6708,8 +6712,8 @@
         <v>3861035.34</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
         <v>201030401003</v>
       </c>
       <c r="B87" t="s">
@@ -6738,7 +6742,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="40">
         <v>201030401003</v>
       </c>
       <c r="B88" t="s">
@@ -6766,8 +6770,8 @@
         <v>3594803.43</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
         <v>201030401003</v>
       </c>
       <c r="B89" t="s">
@@ -6795,8 +6799,8 @@
         <v>3201925.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
         <v>201030401003</v>
       </c>
       <c r="B90" t="s">
@@ -6824,8 +6828,8 @@
         <v>3266925.54</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="40">
         <v>201030401003</v>
       </c>
       <c r="B91" t="s">
@@ -6853,8 +6857,8 @@
         <v>3690332.59</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
         <v>201030401003</v>
       </c>
       <c r="B92" t="s">
@@ -6882,8 +6886,8 @@
         <v>3726450.43</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="40">
         <v>201030401003</v>
       </c>
       <c r="B93" t="s">
@@ -6911,8 +6915,8 @@
         <v>3595043.43</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
         <v>201030401003</v>
       </c>
       <c r="B94" t="s">
@@ -6940,8 +6944,8 @@
         <v>3600530.43</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
         <v>201030401003</v>
       </c>
       <c r="B95" t="s">
@@ -6969,8 +6973,8 @@
         <v>3595339.43</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
         <v>201030401003</v>
       </c>
       <c r="B96" t="s">
@@ -6998,8 +7002,8 @@
         <v>3792978.13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
         <v>201030401003</v>
       </c>
       <c r="B97" t="s">
@@ -7027,8 +7031,8 @@
         <v>3792682.13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
         <v>201030401003</v>
       </c>
       <c r="B98" t="s">
@@ -7056,8 +7060,8 @@
         <v>3787520.13</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
         <v>201030401003</v>
       </c>
       <c r="B99" t="s">
@@ -7085,8 +7089,8 @@
         <v>3791742.71</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
         <v>201030401003</v>
       </c>
       <c r="B100" t="s">
@@ -7114,8 +7118,8 @@
         <v>3796579.71</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
         <v>201030401003</v>
       </c>
       <c r="B101" t="s">
@@ -7143,8 +7147,8 @@
         <v>3694913.3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40">
         <v>201030401003</v>
       </c>
       <c r="B102" t="s">
@@ -7172,8 +7176,8 @@
         <v>3795180.21</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
         <v>201030401003</v>
       </c>
       <c r="B103" t="s">
@@ -7201,8 +7205,8 @@
         <v>3914785.64</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40">
         <v>201030401003</v>
       </c>
       <c r="B104" t="s">
@@ -7230,8 +7234,8 @@
         <v>3891536.27</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
         <v>201030401003</v>
       </c>
       <c r="B105" t="s">
@@ -7259,8 +7263,8 @@
         <v>3897251.77</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
         <v>201030401003</v>
       </c>
       <c r="B106" t="s">
@@ -7288,8 +7292,8 @@
         <v>3894019.43</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40">
         <v>201030401003</v>
       </c>
       <c r="B107" t="s">
@@ -7317,8 +7321,8 @@
         <v>3472487.14</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
         <v>201030401003</v>
       </c>
       <c r="B108" t="s">
@@ -7346,8 +7350,8 @@
         <v>3478225.62</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
         <v>201030401003</v>
       </c>
       <c r="B109" t="s">
@@ -7375,8 +7379,8 @@
         <v>3889839.71</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
         <v>201030401003</v>
       </c>
       <c r="B110" t="s">
@@ -7404,8 +7408,8 @@
         <v>3473422.09</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
         <v>201030401003</v>
       </c>
       <c r="B111" t="s">
@@ -7433,8 +7437,8 @@
         <v>3889366.45</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
         <v>201030401003</v>
       </c>
       <c r="B112" t="s">
@@ -7463,7 +7467,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="40">
         <v>201030401003</v>
       </c>
       <c r="B113" t="s">
@@ -7491,8 +7495,8 @@
         <v>3791982.71</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="40">
         <v>201030401003</v>
       </c>
       <c r="B114" t="s">
@@ -7520,8 +7524,8 @@
         <v>3915122.64</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40">
         <v>201030401003</v>
       </c>
       <c r="B115" t="s">
@@ -7549,8 +7553,8 @@
         <v>3885611.28</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40">
         <v>201030401003</v>
       </c>
       <c r="B116" t="s">
@@ -7578,8 +7582,8 @@
         <v>3880821.02</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
         <v>201030401003</v>
       </c>
       <c r="B117" t="s">
@@ -7607,8 +7611,8 @@
         <v>3719983.83</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="40">
         <v>201030401003</v>
       </c>
       <c r="B118" t="s">
@@ -7636,8 +7640,8 @@
         <v>3839141.92</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
         <v>201030401003</v>
       </c>
       <c r="B119" t="s">
@@ -7665,8 +7669,8 @@
         <v>3474414.25</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
         <v>201030401003</v>
       </c>
       <c r="B120" t="s">
@@ -7694,8 +7698,8 @@
         <v>3889464.71</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
         <v>201030401003</v>
       </c>
       <c r="B121" t="s">
@@ -7723,8 +7727,8 @@
         <v>3838869.92</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
         <v>201030401003</v>
       </c>
       <c r="B122" t="s">
@@ -7752,8 +7756,8 @@
         <v>3832207.11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="40">
         <v>201030401003</v>
       </c>
       <c r="B123" t="s">
@@ -7781,8 +7785,8 @@
         <v>3894680.14</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="40">
         <v>201030401003</v>
       </c>
       <c r="B124" t="s">
@@ -7810,8 +7814,8 @@
         <v>3894226.54</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
         <v>201030401003</v>
       </c>
       <c r="B125" t="s">
@@ -7839,8 +7843,8 @@
         <v>3828334.92</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="40">
         <v>201030401003</v>
       </c>
       <c r="B126" t="s">
@@ -7868,8 +7872,8 @@
         <v>3829062.92</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="40">
         <v>201030401003</v>
       </c>
       <c r="B127" t="s">
@@ -7897,8 +7901,8 @@
         <v>3829938.12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="40">
         <v>201030401003</v>
       </c>
       <c r="B128" t="s">
@@ -7926,8 +7930,8 @@
         <v>3911386.09</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
         <v>201030401003</v>
       </c>
       <c r="B129" t="s">
@@ -7955,8 +7959,8 @@
         <v>3807478.87</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="40">
         <v>201030401003</v>
       </c>
       <c r="B130" t="s">
@@ -7984,8 +7988,8 @@
         <v>3833759.11</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
         <v>201030401003</v>
       </c>
       <c r="B131" t="s">
@@ -8013,8 +8017,8 @@
         <v>3807890.47</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
         <v>201030401003</v>
       </c>
       <c r="B132" t="s">
@@ -8042,8 +8046,8 @@
         <v>3694440.02</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
         <v>201030401003</v>
       </c>
       <c r="B133" t="s">
@@ -8071,8 +8075,8 @@
         <v>3693105.02</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="40">
         <v>201030401003</v>
       </c>
       <c r="B134" t="s">
@@ -8100,8 +8104,8 @@
         <v>3710716.09</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
         <v>201030401003</v>
       </c>
       <c r="B135" t="s">
@@ -8129,8 +8133,8 @@
         <v>3689820.02</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
         <v>201030401003</v>
       </c>
       <c r="B136" t="s">
@@ -8158,8 +8162,8 @@
         <v>3689751.9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
         <v>201030401003</v>
       </c>
       <c r="B137" t="s">
@@ -8187,8 +8191,8 @@
         <v>3710088.98</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
         <v>201030401003</v>
       </c>
       <c r="B138" t="s">
@@ -8216,8 +8220,8 @@
         <v>3600501.43</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
         <v>201030401003</v>
       </c>
       <c r="B139" t="s">
@@ -8245,8 +8249,8 @@
         <v>3898651.34</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="40">
         <v>201030401003</v>
       </c>
       <c r="B140" t="s">
@@ -8274,8 +8278,8 @@
         <v>3839413.92</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
         <v>201030401003</v>
       </c>
       <c r="B141" t="s">
@@ -8303,8 +8307,8 @@
         <v>3410248.46</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="40">
         <v>201030401003</v>
       </c>
       <c r="B142" t="s">
@@ -8332,8 +8336,8 @@
         <v>3838776.56</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
         <v>201030401003</v>
       </c>
       <c r="B143" t="s">
@@ -8361,8 +8365,8 @@
         <v>3838597.1200000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
         <v>201030401003</v>
       </c>
       <c r="B144" t="s">
@@ -8390,8 +8394,8 @@
         <v>3832582.11</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
         <v>201030401003</v>
       </c>
       <c r="B145" t="s">
@@ -8419,8 +8423,8 @@
         <v>3799828.37</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
         <v>201030401003</v>
       </c>
       <c r="B146" t="s">
@@ -8448,8 +8452,8 @@
         <v>3595303.43</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
         <v>201030401003</v>
       </c>
       <c r="B147" t="s">
@@ -8478,7 +8482,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="40">
         <v>201030401003</v>
       </c>
       <c r="B148" t="s">
@@ -8507,7 +8511,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="40">
         <v>201030401003</v>
       </c>
       <c r="B149" t="s">
@@ -8536,7 +8540,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="40">
         <v>201030401003</v>
       </c>
       <c r="B150" t="s">
@@ -8564,8 +8568,8 @@
         <v>3905285.64</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="40">
         <v>201030401003</v>
       </c>
       <c r="B151" t="s">
@@ -8593,8 +8597,8 @@
         <v>3906564.64</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="40">
         <v>201030401003</v>
       </c>
       <c r="B152" t="s">
@@ -8623,7 +8627,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="40">
         <v>201030401003</v>
       </c>
       <c r="B153" t="s">
@@ -8652,7 +8656,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="40">
         <v>201030401003</v>
       </c>
       <c r="B154" t="s">
@@ -8681,7 +8685,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="40">
         <v>201030401003</v>
       </c>
       <c r="B155" t="s">
@@ -8709,8 +8713,8 @@
         <v>3897523.77</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="40">
         <v>201030401003</v>
       </c>
       <c r="B156" t="s">
@@ -8739,7 +8743,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="40">
         <v>201030401003</v>
       </c>
       <c r="B157" t="s">
@@ -8767,8 +8771,8 @@
         <v>3892751.77</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="40">
         <v>201030401003</v>
       </c>
       <c r="B158" t="s">
@@ -8796,8 +8800,8 @@
         <v>3880613.9</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="40">
         <v>201030401003</v>
       </c>
       <c r="B159" t="s">
@@ -8825,8 +8829,8 @@
         <v>3849845.34</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
         <v>201030401003</v>
       </c>
       <c r="B160" t="s">
@@ -8854,8 +8858,8 @@
         <v>3891808.27</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
         <v>201030401003</v>
       </c>
       <c r="B161" t="s">
@@ -8883,8 +8887,8 @@
         <v>3889933.07</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
         <v>201030401003</v>
       </c>
       <c r="B162" t="s">
@@ -8912,8 +8916,8 @@
         <v>3890661.07</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
         <v>201030401003</v>
       </c>
       <c r="B163" t="s">
@@ -8941,8 +8945,8 @@
         <v>3845986.44</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
         <v>201030401003</v>
       </c>
       <c r="B164" t="s">
@@ -8970,8 +8974,8 @@
         <v>3223734.14</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
         <v>201030401003</v>
       </c>
       <c r="B165" t="s">
@@ -8999,8 +9003,8 @@
         <v>3838237.78</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
         <v>201030401003</v>
       </c>
       <c r="B166" t="s">
@@ -9028,8 +9032,8 @@
         <v>3889391.45</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
         <v>201030401003</v>
       </c>
       <c r="B167" t="s">
@@ -9057,8 +9061,8 @@
         <v>3889661.48</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
         <v>201030401003</v>
       </c>
       <c r="B168" t="s">
@@ -9086,8 +9090,8 @@
         <v>3866371.69</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
         <v>201030401003</v>
       </c>
       <c r="B169" t="s">
@@ -9115,8 +9119,8 @@
         <v>3870748.69</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
         <v>201030401003</v>
       </c>
       <c r="B170" t="s">
@@ -9144,8 +9148,8 @@
         <v>3725173.43</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="40">
         <v>201030401003</v>
       </c>
       <c r="B171" t="s">
@@ -9174,7 +9178,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="40">
         <v>201030401003</v>
       </c>
       <c r="B172" t="s">
@@ -9202,8 +9206,8 @@
         <v>3876113.9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
         <v>201030401003</v>
       </c>
       <c r="B173" t="s">
@@ -9232,7 +9236,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="40">
         <v>201030401003</v>
       </c>
       <c r="B174" t="s">
@@ -9260,8 +9264,8 @@
         <v>3871160.3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
         <v>201030401003</v>
       </c>
       <c r="B175" t="s">
@@ -9290,7 +9294,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="40">
         <v>201030401003</v>
       </c>
       <c r="B176" t="s">
@@ -9318,8 +9322,8 @@
         <v>3867548.69</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="40">
         <v>201030401003</v>
       </c>
       <c r="B177" t="s">
@@ -9347,8 +9351,8 @@
         <v>3724225.26</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="40">
         <v>201030401003</v>
       </c>
       <c r="B178" t="s">
@@ -9377,7 +9381,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="40">
         <v>201030401003</v>
       </c>
       <c r="B179" t="s">
@@ -9405,8 +9409,8 @@
         <v>3841486.44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="40">
         <v>201030401003</v>
       </c>
       <c r="B180" t="s">
@@ -9435,7 +9439,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="40">
         <v>201030401003</v>
       </c>
       <c r="B181" t="s">
@@ -9463,8 +9467,8 @@
         <v>3833737.78</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="40">
         <v>201030401003</v>
       </c>
       <c r="B182" t="s">
@@ -9492,8 +9496,8 @@
         <v>3266925.54</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="40">
         <v>201030401003</v>
       </c>
       <c r="B183" t="s">
@@ -9522,7 +9526,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="40">
         <v>201030401003</v>
       </c>
       <c r="B184" t="s">
@@ -9550,8 +9554,8 @@
         <v>3829388.14</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="40">
         <v>201030401003</v>
       </c>
       <c r="B185" t="s">
@@ -9580,7 +9584,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="40">
         <v>201030401003</v>
       </c>
       <c r="B186" t="s">
@@ -9609,7 +9613,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="40">
         <v>201030401003</v>
       </c>
       <c r="B187" t="s">
@@ -9637,8 +9641,8 @@
         <v>3852035.34</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="40">
         <v>201030401003</v>
       </c>
       <c r="B188" t="s">
@@ -9666,8 +9670,8 @@
         <v>3471814.04</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="40">
         <v>201030401003</v>
       </c>
       <c r="B189" t="s">
@@ -9695,8 +9699,8 @@
         <v>3471683.42</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="40">
         <v>201030401003</v>
       </c>
       <c r="B190" t="s">
@@ -9724,8 +9728,8 @@
         <v>3471606.04</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="40">
         <v>201030401003</v>
       </c>
       <c r="B191" t="s">
@@ -9753,8 +9757,8 @@
         <v>3471351.79</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="40">
         <v>201030401003</v>
       </c>
       <c r="B192" t="s">
@@ -9782,8 +9786,8 @@
         <v>3471905.88</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="40">
         <v>201030401003</v>
       </c>
       <c r="B193" t="s">
@@ -9811,8 +9815,8 @@
         <v>3471079.79</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="40">
         <v>201030401003</v>
       </c>
       <c r="B194" t="s">
@@ -9840,8 +9844,8 @@
         <v>3470807.79</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="40">
         <v>201030401003</v>
       </c>
       <c r="B195" t="s">
@@ -9869,8 +9873,8 @@
         <v>3675631</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="40">
         <v>201030401003</v>
       </c>
       <c r="B196" t="s">
@@ -9898,8 +9902,8 @@
         <v>3740328.48</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="40">
         <v>201030401003</v>
       </c>
       <c r="B197" t="s">
@@ -9927,8 +9931,8 @@
         <v>3725956.48</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="40">
         <v>201030401003</v>
       </c>
       <c r="B198" t="s">
@@ -9956,8 +9960,8 @@
         <v>3733438.5</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="40">
         <v>201030401003</v>
       </c>
       <c r="B199" t="s">
@@ -9985,8 +9989,8 @@
         <v>3690370.68</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="40">
         <v>201030401003</v>
       </c>
       <c r="B200" t="s">
@@ -10014,8 +10018,8 @@
         <v>3690361.66</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="40">
         <v>201030401003</v>
       </c>
       <c r="B201" t="s">
@@ -10043,8 +10047,8 @@
         <v>3681214.6</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="40">
         <v>201030401003</v>
       </c>
       <c r="B202" t="s">
@@ -10072,8 +10076,8 @@
         <v>3746623.48</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="40">
         <v>201030401003</v>
       </c>
       <c r="B203" t="s">
@@ -10101,8 +10105,8 @@
         <v>3745100.48</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="40">
         <v>201030401003</v>
       </c>
       <c r="B204" t="s">
@@ -10130,8 +10134,8 @@
         <v>3746252.48</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="40">
         <v>201030401003</v>
       </c>
       <c r="B205" t="s">
@@ -10159,8 +10163,8 @@
         <v>3746749.96</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="40">
         <v>201030401003</v>
       </c>
       <c r="B206" t="s">
@@ -10188,8 +10192,8 @@
         <v>3690866.68</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="40">
         <v>201030401003</v>
       </c>
       <c r="B207" t="s">
@@ -10217,8 +10221,8 @@
         <v>3791982.71</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
         <v>201030401003</v>
       </c>
       <c r="B208" t="s">
@@ -10246,8 +10250,8 @@
         <v>3665979.53</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
         <v>201030401003</v>
       </c>
       <c r="B209" t="s">
@@ -10275,8 +10279,8 @@
         <v>3665343.31</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
         <v>201030401003</v>
       </c>
       <c r="B210" t="s">
@@ -10304,8 +10308,8 @@
         <v>3665236.67</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="40">
         <v>201030401003</v>
       </c>
       <c r="B211" t="s">
@@ -10333,8 +10337,8 @@
         <v>3747992.6</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="40">
         <v>201030401003</v>
       </c>
       <c r="B212" t="s">
@@ -10362,8 +10366,8 @@
         <v>3379749.78</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
         <v>201030401003</v>
       </c>
       <c r="B213" t="s">
@@ -10391,8 +10395,8 @@
         <v>3660577.94</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="40">
         <v>201030401003</v>
       </c>
       <c r="B214" t="s">
@@ -10420,8 +10424,8 @@
         <v>3795180.21</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="40">
         <v>201030401003</v>
       </c>
       <c r="B215" t="s">
@@ -10449,8 +10453,8 @@
         <v>3719402.57</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="40">
         <v>201030401003</v>
       </c>
       <c r="B216" t="s">
@@ -10478,8 +10482,8 @@
         <v>3807845.34</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="40">
         <v>201030401003</v>
       </c>
       <c r="B217" t="s">
@@ -10507,8 +10511,8 @@
         <v>3736445.34</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="40">
         <v>201030401003</v>
       </c>
       <c r="B218" t="s">
@@ -10536,8 +10540,8 @@
         <v>3686114.41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="40">
         <v>201030401003</v>
       </c>
       <c r="B219" t="s">
@@ -10565,8 +10569,8 @@
         <v>3671443.05</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="40">
         <v>201030401003</v>
       </c>
       <c r="B220" t="s">
@@ -10594,8 +10598,8 @@
         <v>3667243.05</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="40">
         <v>201030401003</v>
       </c>
       <c r="B221" t="s">
@@ -10623,8 +10627,8 @@
         <v>3684894.6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="40">
         <v>201030401003</v>
       </c>
       <c r="B222" t="s">
@@ -10652,8 +10656,8 @@
         <v>3674115.3</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="40">
         <v>201030401003</v>
       </c>
       <c r="B223" t="s">
@@ -10681,8 +10685,8 @@
         <v>3682515.3</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="40">
         <v>201030401003</v>
       </c>
       <c r="B224" t="s">
@@ -10710,8 +10714,8 @@
         <v>3678315.3</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="40">
         <v>201030401003</v>
       </c>
       <c r="B225" t="s">
@@ -10739,8 +10743,8 @@
         <v>3693294.6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="25.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" spans="1:9" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="40">
         <v>201030401003</v>
       </c>
       <c r="B226" t="s">
@@ -10768,8 +10772,8 @@
         <v>3689094.6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="40">
         <v>201030401003</v>
       </c>
       <c r="B227" t="s">
@@ -10797,8 +10801,8 @@
         <v>3697494.6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="40">
         <v>201030401003</v>
       </c>
       <c r="B228" t="s">
@@ -10826,8 +10830,8 @@
         <v>3701694.6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="40">
         <v>201030401003</v>
       </c>
       <c r="B229" t="s">
@@ -10856,7 +10860,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="40">
         <v>201030401003</v>
       </c>
       <c r="B230" t="s">
@@ -10884,8 +10888,8 @@
         <v>3689532.59</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="40">
         <v>201030401003</v>
       </c>
       <c r="B231" t="s">
@@ -10913,8 +10917,8 @@
         <v>3689575.92</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="40">
         <v>201030401003</v>
       </c>
       <c r="B232" t="s">
@@ -10942,8 +10946,8 @@
         <v>3753404.12</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
         <v>201030401003</v>
       </c>
       <c r="B233" t="s">
@@ -10971,8 +10975,8 @@
         <v>3753775.2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="40">
         <v>201030401003</v>
       </c>
       <c r="B234" t="s">
@@ -11000,8 +11004,8 @@
         <v>3755082.03</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="40">
         <v>201030401003</v>
       </c>
       <c r="B235" t="s">
@@ -11029,8 +11033,8 @@
         <v>3754810.03</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="40">
         <v>201030401003</v>
       </c>
       <c r="B236" t="s">
@@ -11058,8 +11062,8 @@
         <v>3719696.88</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="40">
         <v>201030401003</v>
       </c>
       <c r="B237" t="s">
@@ -11087,8 +11091,8 @@
         <v>3754330.03</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="40">
         <v>201030401003</v>
       </c>
       <c r="B238" t="s">
@@ -11116,8 +11120,8 @@
         <v>3726438.94</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="40">
         <v>201030401003</v>
       </c>
       <c r="B239" t="s">
@@ -11145,8 +11149,8 @@
         <v>3726558.94</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="40">
         <v>201030401003</v>
       </c>
       <c r="B240" t="s">
@@ -11174,8 +11178,8 @@
         <v>3705894.6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="40">
         <v>201030401003</v>
       </c>
       <c r="B241" t="s">
@@ -11204,7 +11208,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="40">
         <v>201030401003</v>
       </c>
       <c r="B242" t="s">
@@ -11232,8 +11236,8 @@
         <v>3719549.28</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="40">
         <v>201030401003</v>
       </c>
       <c r="B243" t="s">
@@ -11261,8 +11265,8 @@
         <v>3795278.88</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="40">
         <v>201030401003</v>
       </c>
       <c r="B244" t="s">
@@ -11290,8 +11294,8 @@
         <v>3719460.57</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="40">
         <v>201030401003</v>
       </c>
       <c r="B245" t="s">
@@ -11319,8 +11323,8 @@
         <v>3747992.6</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="40">
         <v>201030401003</v>
       </c>
       <c r="B246" t="s">
@@ -11348,8 +11352,8 @@
         <v>3755896.36</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="40">
         <v>201030401003</v>
       </c>
       <c r="B247" t="s">
@@ -11377,8 +11381,8 @@
         <v>3743792.6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="40">
         <v>201030401003</v>
       </c>
       <c r="B248" t="s">
@@ -11406,8 +11410,8 @@
         <v>3719437.57</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="40">
         <v>201030401003</v>
       </c>
       <c r="B249" t="s">
@@ -11436,7 +11440,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="40">
         <v>201030401003</v>
       </c>
       <c r="B250" t="s">
@@ -11464,8 +11468,8 @@
         <v>3716169.45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="40">
         <v>201030401003</v>
       </c>
       <c r="B251" t="s">
@@ -11493,8 +11497,8 @@
         <v>3796657.42</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="40">
         <v>201030401003</v>
       </c>
       <c r="B252" t="s">
@@ -11522,8 +11526,8 @@
         <v>3720068.83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="40">
         <v>201030401003</v>
       </c>
       <c r="B253" t="s">
@@ -11551,8 +11555,8 @@
         <v>3724717.17</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="40">
         <v>201030401003</v>
       </c>
       <c r="B254" t="s">
@@ -11580,8 +11584,8 @@
         <v>3755824.89</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="40">
         <v>201030401003</v>
       </c>
       <c r="B255" t="s">
@@ -11609,8 +11613,8 @@
         <v>3755718.25</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="40">
         <v>201030401003</v>
       </c>
       <c r="B256" t="s">
@@ -11638,8 +11642,8 @@
         <v>3714294.6</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="40">
         <v>201030401003</v>
       </c>
       <c r="B257" t="s">
@@ -11667,8 +11671,8 @@
         <v>3722694.6</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="40">
         <v>201030401003</v>
       </c>
       <c r="B258" t="s">
@@ -11696,8 +11700,8 @@
         <v>3753784.22</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="40">
         <v>201030401003</v>
       </c>
       <c r="B259" t="s">
@@ -11725,8 +11729,8 @@
         <v>3752192.6</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="40">
         <v>201030401003</v>
       </c>
       <c r="B260" t="s">
@@ -11754,8 +11758,8 @@
         <v>3753834.03</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="40">
         <v>201030401003</v>
       </c>
       <c r="B261" t="s">
@@ -11783,8 +11787,8 @@
         <v>3718494.6</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="40">
         <v>201030401003</v>
       </c>
       <c r="B262" t="s">
@@ -11812,8 +11816,8 @@
         <v>3724855.94</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="40">
         <v>201030401003</v>
       </c>
       <c r="B263" t="s">
@@ -11841,8 +11845,8 @@
         <v>3726378.94</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="40">
         <v>201030401003</v>
       </c>
       <c r="B264" t="s">
@@ -11870,8 +11874,8 @@
         <v>3731094.6</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="40">
         <v>201030401003</v>
       </c>
       <c r="B265" t="s">
@@ -11899,8 +11903,8 @@
         <v>3724763.57</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="40">
         <v>201030401003</v>
       </c>
       <c r="B266" t="s">
@@ -11928,8 +11932,8 @@
         <v>3753876.6</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
         <v>201030401003</v>
       </c>
       <c r="B267" t="s">
@@ -11957,8 +11961,8 @@
         <v>3739494.6</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="40">
         <v>201030401003</v>
       </c>
       <c r="B268" t="s">
@@ -11986,8 +11990,8 @@
         <v>3753414.32</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="40">
         <v>201030401003</v>
       </c>
       <c r="B269" t="s">
@@ -12015,8 +12019,8 @@
         <v>3753686.32</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="40">
         <v>201030401003</v>
       </c>
       <c r="B270" t="s">
@@ -12044,8 +12048,8 @@
         <v>3756392.6</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="40">
         <v>201030401003</v>
       </c>
       <c r="B271" t="s">
@@ -12073,8 +12077,8 @@
         <v>3686715.3</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="40">
         <v>201030401003</v>
       </c>
       <c r="B272" t="s">
@@ -12102,8 +12106,8 @@
         <v>3743854.5</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="40">
         <v>201030401003</v>
       </c>
       <c r="B273" t="s">
@@ -12131,8 +12135,8 @@
         <v>3753433.92</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="40">
         <v>201030401003</v>
       </c>
       <c r="B274" t="s">
@@ -12160,8 +12164,8 @@
         <v>3735898.5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="40">
         <v>201030401003</v>
       </c>
       <c r="B275" t="s">
@@ -12189,8 +12193,8 @@
         <v>3727432.5</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="40">
         <v>201030401003</v>
       </c>
       <c r="B276" t="s">
@@ -12218,8 +12222,8 @@
         <v>3744066.92</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="40">
         <v>201030401003</v>
       </c>
       <c r="B277" t="s">
@@ -12247,8 +12251,8 @@
         <v>3719625.59</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="40">
         <v>201030401003</v>
       </c>
       <c r="B278" t="s">
@@ -12276,8 +12280,8 @@
         <v>3371337.37</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="40">
         <v>201030401003</v>
       </c>
       <c r="B279" t="s">
@@ -12305,8 +12309,8 @@
         <v>3344292.26</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="40">
         <v>201030401003</v>
       </c>
       <c r="B280" t="s">
@@ -12335,7 +12339,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="40">
         <v>201030401003</v>
       </c>
       <c r="B281" t="s">
@@ -12364,7 +12368,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="40">
         <v>201030401003</v>
       </c>
       <c r="B282" t="s">
@@ -12392,8 +12396,8 @@
         <v>3746796.36</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="40">
         <v>201030401003</v>
       </c>
       <c r="B283" t="s">
@@ -12421,8 +12425,8 @@
         <v>3710094.6</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="40">
         <v>201030401003</v>
       </c>
       <c r="B284" t="s">
@@ -12450,8 +12454,8 @@
         <v>3702845.34</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="40">
         <v>201030401003</v>
       </c>
       <c r="B285" t="s">
@@ -12479,8 +12483,8 @@
         <v>3816245.34</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="40">
         <v>201030401003</v>
       </c>
       <c r="B286" t="s">
@@ -12509,7 +12513,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="40">
         <v>201030401003</v>
       </c>
       <c r="B287" t="s">
@@ -12537,8 +12541,8 @@
         <v>3740600.48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="40">
         <v>201030401003</v>
       </c>
       <c r="B288" t="s">
@@ -12567,7 +12571,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="40">
         <v>201030401003</v>
       </c>
       <c r="B289" t="s">
@@ -12596,7 +12600,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="40">
         <v>201030401003</v>
       </c>
       <c r="B290" t="s">
@@ -12625,7 +12629,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="40">
         <v>201030401003</v>
       </c>
       <c r="B291" t="s">
@@ -12653,8 +12657,8 @@
         <v>3726228.48</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="40">
         <v>201030401003</v>
       </c>
       <c r="B292" t="s">
@@ -12683,7 +12687,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="40">
         <v>201030401003</v>
       </c>
       <c r="B293" t="s">
@@ -12711,8 +12715,8 @@
         <v>3721456.48</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
         <v>201030401003</v>
       </c>
       <c r="B294" t="s">
@@ -12740,8 +12744,8 @@
         <v>3725956.48</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
         <v>201030401003</v>
       </c>
       <c r="B295" t="s">
@@ -12770,7 +12774,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="40">
         <v>201030401003</v>
       </c>
       <c r="B296" t="s">
@@ -12799,7 +12803,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="40">
         <v>201030401003</v>
       </c>
       <c r="B297" t="s">
@@ -12828,7 +12832,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="40">
         <v>201030401003</v>
       </c>
       <c r="B298" t="s">
@@ -12857,7 +12861,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="40">
         <v>201030401003</v>
       </c>
       <c r="B299" t="s">
@@ -12885,8 +12889,8 @@
         <v>3712056.48</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
         <v>201030401003</v>
       </c>
       <c r="B300" t="s">
@@ -12915,7 +12919,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="40">
         <v>201030401003</v>
       </c>
       <c r="B301" t="s">
@@ -12943,8 +12947,8 @@
         <v>3707050.18</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
         <v>201030401003</v>
       </c>
       <c r="B302" t="s">
@@ -12972,8 +12976,8 @@
         <v>3707147.68</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="40">
         <v>201030401003</v>
       </c>
       <c r="B303" t="s">
@@ -13002,7 +13006,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="40">
         <v>201030401003</v>
       </c>
       <c r="B304" t="s">
@@ -13031,7 +13035,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="40">
         <v>201030401003</v>
       </c>
       <c r="B305" t="s">
@@ -13060,7 +13064,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="40">
         <v>201030401003</v>
       </c>
       <c r="B306" t="s">
@@ -13089,7 +13093,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="40">
         <v>201030401003</v>
       </c>
       <c r="B307" t="s">
@@ -13118,7 +13122,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="40">
         <v>201030401003</v>
       </c>
       <c r="B308" t="s">
@@ -13146,8 +13150,8 @@
         <v>3698517.68</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="40">
         <v>201030401003</v>
       </c>
       <c r="B309" t="s">
@@ -13176,7 +13180,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="40">
         <v>201030401003</v>
       </c>
       <c r="B310" t="s">
@@ -13204,8 +13208,8 @@
         <v>3693842.68</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="40">
         <v>201030401003</v>
       </c>
       <c r="B311" t="s">
@@ -13233,8 +13237,8 @@
         <v>3694142.68</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="40">
         <v>201030401003</v>
       </c>
       <c r="B312" t="s">
@@ -13262,8 +13266,8 @@
         <v>3761645.34</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="40">
         <v>201030401003</v>
       </c>
       <c r="B313" t="s">
@@ -13291,8 +13295,8 @@
         <v>3820445.34</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="40">
         <v>201030401003</v>
       </c>
       <c r="B314" t="s">
@@ -13320,8 +13324,8 @@
         <v>3698645.34</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="40">
         <v>201030401003</v>
       </c>
       <c r="B315" t="s">
@@ -13350,7 +13354,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="40">
         <v>201030401003</v>
       </c>
       <c r="B316" t="s">
@@ -13378,8 +13382,8 @@
         <v>3685981.66</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="40">
         <v>201030401003</v>
       </c>
       <c r="B317" t="s">
@@ -13407,8 +13411,8 @@
         <v>3366683.59</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="40">
         <v>201030401003</v>
       </c>
       <c r="B318" t="s">
@@ -13437,7 +13441,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="40">
         <v>201030401003</v>
       </c>
       <c r="B319" t="s">
@@ -13465,8 +13469,8 @@
         <v>3681264.41</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="40">
         <v>201030401003</v>
       </c>
       <c r="B320" t="s">
@@ -13494,8 +13498,8 @@
         <v>3757445.34</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="40">
         <v>201030401003</v>
       </c>
       <c r="B321" t="s">
@@ -13523,8 +13527,8 @@
         <v>3775530.43</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="40">
         <v>201030401003</v>
       </c>
       <c r="B322" t="s">
@@ -13552,8 +13556,8 @@
         <v>3889545.89</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="19">
+    <row r="323" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="41">
         <v>201030401003</v>
       </c>
       <c r="B323" s="19" t="s">
@@ -13581,8 +13585,8 @@
         <v>3827391.42</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
         <v>201030401003</v>
       </c>
       <c r="B324" t="s">
@@ -13611,7 +13615,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="40">
         <v>201030401003</v>
       </c>
       <c r="B325" t="s">
@@ -13640,7 +13644,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="40">
         <v>201030401003</v>
       </c>
       <c r="B326" t="s">
@@ -13668,8 +13672,8 @@
         <v>3666051</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="40">
         <v>201030401003</v>
       </c>
       <c r="B327" t="s">
@@ -13697,8 +13701,8 @@
         <v>3803645.34</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="40">
         <v>201030401003</v>
       </c>
       <c r="B328" t="s">
@@ -13726,8 +13730,8 @@
         <v>3791045.34</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
         <v>201030401003</v>
       </c>
       <c r="B329" t="s">
@@ -13756,7 +13760,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="40">
         <v>201030401003</v>
       </c>
       <c r="B330" t="s">
@@ -13784,8 +13788,8 @@
         <v>3660656.67</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
         <v>201030401003</v>
       </c>
       <c r="B331" t="s">
@@ -13814,7 +13818,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="40">
         <v>201030401003</v>
       </c>
       <c r="B332" t="s">
@@ -13842,8 +13846,8 @@
         <v>3655927.94</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="40">
         <v>201030401003</v>
       </c>
       <c r="B333" t="s">
@@ -13871,8 +13875,8 @@
         <v>3656006.67</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="19">
+    <row r="334" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="41">
         <v>201030401003</v>
       </c>
       <c r="B334" s="19" t="s">
@@ -13900,8 +13904,8 @@
         <v>3827391.42</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="40">
         <v>201030401003</v>
       </c>
       <c r="B335" t="s">
@@ -13929,8 +13933,8 @@
         <v>3719645.34</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="40">
         <v>201030401003</v>
       </c>
       <c r="B336" t="s">
@@ -13959,7 +13963,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="40">
         <v>201030401003</v>
       </c>
       <c r="B337" t="s">
@@ -13988,7 +13992,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="40">
         <v>201030401003</v>
       </c>
       <c r="B338" t="s">
@@ -14016,8 +14020,8 @@
         <v>3724548.5</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
         <v>201030401003</v>
       </c>
       <c r="B339" t="s">
@@ -14045,8 +14049,8 @@
         <v>3724348.5</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
         <v>201030401003</v>
       </c>
       <c r="B340" t="s">
@@ -14075,7 +14079,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="40">
         <v>201030401003</v>
       </c>
       <c r="B341" t="s">
@@ -14103,8 +14107,8 @@
         <v>3719858.5</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="40">
         <v>201030401003</v>
       </c>
       <c r="B342" t="s">
@@ -14132,8 +14136,8 @@
         <v>3681746.6</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
         <v>201030401003</v>
       </c>
       <c r="B343" t="s">
@@ -14161,8 +14165,8 @@
         <v>3682012.6</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
         <v>201030401003</v>
       </c>
       <c r="B344" t="s">
@@ -14190,8 +14194,8 @@
         <v>3366198.24</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
         <v>201030401003</v>
       </c>
       <c r="B345" t="s">
@@ -14219,8 +14223,8 @@
         <v>3366100.74</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
         <v>201030401003</v>
       </c>
       <c r="B346" t="s">
@@ -14248,8 +14252,8 @@
         <v>3720058.5</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
         <v>201030401003</v>
       </c>
       <c r="B347" t="s">
@@ -14277,8 +14281,8 @@
         <v>3743844.6</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
         <v>201030401003</v>
       </c>
       <c r="B348" t="s">
@@ -14306,8 +14310,8 @@
         <v>3690531.66</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
         <v>201030401003</v>
       </c>
       <c r="B349" t="s">
@@ -14335,8 +14339,8 @@
         <v>3451337.37</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
         <v>201030401003</v>
       </c>
       <c r="B350" t="s">
@@ -14364,8 +14368,8 @@
         <v>3686114.41</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
         <v>201030401003</v>
       </c>
       <c r="B351" t="s">
@@ -14393,8 +14397,8 @@
         <v>3787539.13</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="40">
         <v>201030401003</v>
       </c>
       <c r="B352" t="s">
@@ -14422,8 +14426,8 @@
         <v>3366015.74</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="40">
         <v>201030401003</v>
       </c>
       <c r="B353" t="s">
@@ -14451,8 +14455,8 @@
         <v>3366068.24</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="40">
         <v>201030401003</v>
       </c>
       <c r="B354" t="s">
@@ -14480,8 +14484,8 @@
         <v>3753702.6</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="40">
         <v>201030401003</v>
       </c>
       <c r="B355" t="s">
@@ -14509,8 +14513,8 @@
         <v>3753752.6</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="40">
         <v>201030401003</v>
       </c>
       <c r="B356" t="s">
@@ -14538,8 +14542,8 @@
         <v>3366041.99</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="40">
         <v>201030401003</v>
       </c>
       <c r="B357" t="s">
@@ -14567,8 +14571,8 @@
         <v>3366591.99</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="40">
         <v>201030401003</v>
       </c>
       <c r="B358" t="s">
@@ -14596,8 +14600,8 @@
         <v>3833045.34</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="40">
         <v>201030401003</v>
       </c>
       <c r="B359" t="s">
@@ -14625,8 +14629,8 @@
         <v>3740645.34</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="40">
         <v>201030401003</v>
       </c>
       <c r="B360" t="s">
@@ -14654,8 +14658,8 @@
         <v>3748001.35</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="40">
         <v>201030401003</v>
       </c>
       <c r="B361" t="s">
@@ -14683,8 +14687,8 @@
         <v>3845645.34</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="40">
         <v>201030401003</v>
       </c>
       <c r="B362" t="s">
@@ -14712,8 +14716,8 @@
         <v>3711245.34</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="40">
         <v>201030401003</v>
       </c>
       <c r="B363" t="s">
@@ -14742,7 +14746,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="40">
         <v>201030401003</v>
       </c>
       <c r="B364" t="s">
@@ -14770,8 +14774,8 @@
         <v>3739094.6</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="40">
         <v>201030401003</v>
       </c>
       <c r="B365" t="s">
@@ -14799,8 +14803,8 @@
         <v>3371071.46</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="40">
         <v>201030401003</v>
       </c>
       <c r="B366" t="s">
@@ -14828,8 +14832,8 @@
         <v>3828845.34</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="40">
         <v>201030401003</v>
       </c>
       <c r="B367" t="s">
@@ -14857,8 +14861,8 @@
         <v>3824645.34</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="40">
         <v>201030401003</v>
       </c>
       <c r="B368" t="s">
@@ -14886,8 +14890,8 @@
         <v>3770045.34</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="40">
         <v>201030401003</v>
       </c>
       <c r="B369" t="s">
@@ -14915,8 +14919,8 @@
         <v>3690245.34</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="40">
         <v>201030401003</v>
       </c>
       <c r="B370" t="s">
@@ -14944,8 +14948,8 @@
         <v>3744845.34</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="40">
         <v>201030401003</v>
       </c>
       <c r="B371" t="s">
@@ -14973,8 +14977,8 @@
         <v>3694445.34</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="40">
         <v>201030401003</v>
       </c>
       <c r="B372" t="s">
@@ -15002,8 +15006,8 @@
         <v>3753245.34</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="40">
         <v>201030401003</v>
       </c>
       <c r="B373" t="s">
@@ -15031,8 +15035,8 @@
         <v>3715445.34</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="40">
         <v>201030401003</v>
       </c>
       <c r="B374" t="s">
@@ -15060,8 +15064,8 @@
         <v>3723845.34</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="40">
         <v>201030401003</v>
       </c>
       <c r="B375" t="s">
@@ -15089,8 +15093,8 @@
         <v>3732245.34</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="40">
         <v>201030401003</v>
       </c>
       <c r="B376" t="s">
@@ -15118,8 +15122,8 @@
         <v>3774245.34</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="40">
         <v>201030401003</v>
       </c>
       <c r="B377" t="s">
@@ -15147,8 +15151,8 @@
         <v>3841445.34</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="40">
         <v>201030401003</v>
       </c>
       <c r="B378" t="s">
@@ -15176,8 +15180,8 @@
         <v>3812045.34</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="40">
         <v>201030401003</v>
       </c>
       <c r="B379" t="s">
@@ -15205,8 +15209,8 @@
         <v>3349595.94</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="40">
         <v>201030401003</v>
       </c>
       <c r="B380" t="s">
@@ -15234,8 +15238,8 @@
         <v>3736445.34</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="40">
         <v>201030401003</v>
       </c>
       <c r="B381" t="s">
@@ -15263,8 +15267,8 @@
         <v>3786845.34</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="40">
         <v>201030401003</v>
       </c>
       <c r="B382" t="s">
@@ -15292,8 +15296,8 @@
         <v>3707045.34</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="40">
         <v>201030401003</v>
       </c>
       <c r="B383" t="s">
@@ -15321,8 +15325,8 @@
         <v>3833806.86</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="40">
         <v>201030401003</v>
       </c>
       <c r="B384" t="s">
@@ -15350,8 +15354,8 @@
         <v>3807845.34</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="40">
         <v>201030401003</v>
       </c>
       <c r="B385" t="s">
@@ -15380,17 +15384,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I385" xr:uid="{384B9CD7-E7B5-4B25-8BEE-BD6058384BE5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I385" xr:uid="{384B9CD7-E7B5-4B25-8BEE-BD6058384BE5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I383">
     <sortCondition ref="F3:F383"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15403,7 +15402,7 @@
       <selection activeCell="H453" activeCellId="5" sqref="H836:H841 H396 H448 H449 H452 H453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
@@ -40864,7 +40863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
